--- a/FileGunBasin/9 August-04 StormBasin/new db tables for addresses 3.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/new db tables for addresses 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E4FF4E-5916-AC44-A760-D1126D165B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEC620D-DDFE-0545-8E94-6875DC35F953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19380" xr2:uid="{2D41E00E-E4FF-E94C-959E-2FC0089F74CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
   <si>
     <t>CREATE TABLE</t>
   </si>
@@ -263,12 +263,6 @@
     <t>MD5/SHA deduplication hash</t>
   </si>
   <si>
-    <t>address_private</t>
-  </si>
-  <si>
-    <t>fk_user_id</t>
-  </si>
-  <si>
     <t>UUID</t>
   </si>
   <si>
@@ -284,12 +278,6 @@
     <t>Home,"Office","Store"</t>
   </si>
   <si>
-    <t>fk_address_id</t>
-  </si>
-  <si>
-    <t>REFERENCES addressglub(address_id)</t>
-  </si>
-  <si>
     <t>Global reference</t>
   </si>
   <si>
@@ -347,9 +335,6 @@
     <t>Usage tracking</t>
   </si>
   <si>
-    <t>is_public</t>
-  </si>
-  <si>
     <t>sharing_permissions</t>
   </si>
   <si>
@@ -365,7 +350,7 @@
     <t>and tag system</t>
   </si>
   <si>
-    <t>addresspriv</t>
+    <t>addresspren</t>
   </si>
   <si>
     <t>addresspren_id</t>
@@ -432,6 +417,66 @@
   </si>
   <si>
     <t>to "addresspren"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please study the related schemas and store them in your memory as we continue planning this </t>
+  </si>
+  <si>
+    <t>we want the new addresspren_org_entities db table to mirror the existing example _org_entities db table in its field names, structure, etc.</t>
+  </si>
+  <si>
+    <t>addresspren_sitespren_relations</t>
+  </si>
+  <si>
+    <t>addresspren_sitespren_relations_posterior</t>
+  </si>
+  <si>
+    <t>addresspren_sitespren_relations_dentro</t>
+  </si>
+  <si>
+    <t>addresspren_sitespren_relations_afuera</t>
+  </si>
+  <si>
+    <t>relation_id</t>
+  </si>
+  <si>
+    <t>fk_addresspren_id</t>
+  </si>
+  <si>
+    <t>field names could change</t>
+  </si>
+  <si>
+    <t>fk_sitespren_id</t>
+  </si>
+  <si>
+    <t>relation_is_for_external</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>please create sql that i can run in supabase to do the following</t>
+  </si>
+  <si>
+    <t>create new db table</t>
+  </si>
+  <si>
+    <t>that has these db columns</t>
+  </si>
+  <si>
+    <t>other new db tables needed</t>
+  </si>
+  <si>
+    <t>———————————————————————</t>
+  </si>
+  <si>
+    <t>fk_addressglub_id</t>
+  </si>
+  <si>
+    <t>REFERENCES addressglub(addressglub_id)</t>
   </si>
 </sst>
 </file>
@@ -863,11 +908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C784AD-63FA-384A-957A-FE014730827D}">
-  <dimension ref="C1:H125"/>
+  <dimension ref="C1:I200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,709 +920,448 @@
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="3" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="E3" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E56" t="s">
-        <v>128</v>
+      <c r="E56" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E63" s="9" t="s">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E64" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E66" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="3:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="E91" s="8" t="s">
-        <v>1</v>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="C77" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.2">
@@ -1585,16 +1369,16 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.2">
@@ -1602,19 +1386,16 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F96" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G96" t="s">
-        <v>78</v>
-      </c>
-      <c r="H96" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.2">
@@ -1622,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H97" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.2">
@@ -1642,19 +1423,39 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F98" t="s">
         <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="H98" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.2">
@@ -1662,19 +1463,16 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>75</v>
-      </c>
-      <c r="E100" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.2">
@@ -1682,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>75</v>
-      </c>
-      <c r="E101" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.2">
@@ -1699,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
-      </c>
-      <c r="E102" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.2">
@@ -1716,16 +1514,16 @@
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>75</v>
-      </c>
-      <c r="E103" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.2">
@@ -1733,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>75</v>
-      </c>
-      <c r="E104" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.2">
@@ -1750,16 +1548,19 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G105" t="s">
         <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.2">
@@ -1767,16 +1568,36 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G106" t="s">
         <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.2">
@@ -1784,19 +1605,16 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F108" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.2">
@@ -1804,100 +1622,32 @@
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F109" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G109" t="s">
         <v>10</v>
       </c>
       <c r="H109" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C111" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" t="s">
-        <v>75</v>
-      </c>
-      <c r="E111" t="s">
-        <v>97</v>
-      </c>
-      <c r="F111" t="s">
-        <v>33</v>
-      </c>
-      <c r="G111" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" t="s">
-        <v>75</v>
-      </c>
-      <c r="E112" t="s">
-        <v>98</v>
-      </c>
-      <c r="F112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" t="s">
-        <v>75</v>
-      </c>
-      <c r="E113" t="s">
-        <v>100</v>
-      </c>
-      <c r="F113" t="s">
-        <v>33</v>
-      </c>
-      <c r="G113" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E115" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E116" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C118" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" t="s">
-        <v>75</v>
-      </c>
-      <c r="E118" t="s">
-        <v>101</v>
-      </c>
-      <c r="F118" t="s">
-        <v>68</v>
-      </c>
-      <c r="G118" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" t="s">
-        <v>102</v>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="C117" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.2">
@@ -1905,16 +1655,36 @@
         <v>0</v>
       </c>
       <c r="D119" t="s">
+        <v>104</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>104</v>
+      </c>
+      <c r="E120" t="s">
+        <v>139</v>
+      </c>
+      <c r="F120" t="s">
         <v>75</v>
       </c>
-      <c r="E119" t="s">
-        <v>49</v>
-      </c>
-      <c r="F119" t="s">
-        <v>45</v>
-      </c>
-      <c r="G119" t="s">
-        <v>50</v>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.2">
@@ -1922,16 +1692,19 @@
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E121" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.2">
@@ -1939,19 +1712,39 @@
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E122" t="s">
+        <v>145</v>
+      </c>
+      <c r="F122" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" t="s">
+        <v>146</v>
+      </c>
+      <c r="H122" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
         <v>104</v>
       </c>
-      <c r="F122" t="s">
-        <v>105</v>
-      </c>
-      <c r="G122" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" t="s">
-        <v>106</v>
+      <c r="E123" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.2">
@@ -1959,16 +1752,16 @@
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>75</v>
-      </c>
-      <c r="E124" t="s">
-        <v>67</v>
+        <v>104</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F124" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G124" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.2">
@@ -1976,16 +1769,401 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>75</v>
-      </c>
-      <c r="E125" t="s">
+        <v>104</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>104</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>104</v>
+      </c>
+      <c r="E130" t="s">
+        <v>89</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>104</v>
+      </c>
+      <c r="E131" t="s">
+        <v>91</v>
+      </c>
+      <c r="F131" t="s">
+        <v>65</v>
+      </c>
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>104</v>
+      </c>
+      <c r="E132" t="s">
+        <v>93</v>
+      </c>
+      <c r="F132" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>104</v>
+      </c>
+      <c r="E133" t="s">
+        <v>94</v>
+      </c>
+      <c r="F133" t="s">
+        <v>33</v>
+      </c>
+      <c r="G133" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>104</v>
+      </c>
+      <c r="E134" t="s">
+        <v>96</v>
+      </c>
+      <c r="F134" t="s">
+        <v>33</v>
+      </c>
+      <c r="G134" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>104</v>
+      </c>
+      <c r="E135" t="s">
+        <v>97</v>
+      </c>
+      <c r="F135" t="s">
+        <v>68</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>104</v>
+      </c>
+      <c r="E136" t="s">
+        <v>49</v>
+      </c>
+      <c r="F136" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>104</v>
+      </c>
+      <c r="E137" t="s">
+        <v>99</v>
+      </c>
+      <c r="F137" t="s">
+        <v>100</v>
+      </c>
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>104</v>
+      </c>
+      <c r="E138" t="s">
+        <v>67</v>
+      </c>
+      <c r="F138" t="s">
+        <v>68</v>
+      </c>
+      <c r="G138" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>104</v>
+      </c>
+      <c r="E139" t="s">
         <v>70</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F139" t="s">
         <v>68</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G139" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C142" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E155" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E156" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="5:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E174" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E177" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E178" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="184" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F184" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+    </row>
+    <row r="188" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E188" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E189" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E190" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+    </row>
+    <row r="192" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E192" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E194" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F194" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E195" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E196" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E197" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F197" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E198" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E199" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E200" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/new db tables for addresses 3.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/new db tables for addresses 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEC620D-DDFE-0545-8E94-6875DC35F953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958AB80B-2FF0-F541-B2DD-E9D8D3740A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19380" xr2:uid="{2D41E00E-E4FF-E94C-959E-2FC0089F74CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{2D41E00E-E4FF-E94C-959E-2FC0089F74CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="147">
   <si>
     <t>CREATE TABLE</t>
   </si>
@@ -911,8 +911,8 @@
   <dimension ref="C1:I200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2056,6 +2056,26 @@
         <v>123</v>
       </c>
     </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E155" s="3" t="s">
         <v>102</v>
